--- a/storage/act.xlsx
+++ b/storage/act.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F744BF-10D6-0742-BDB1-02C19B1274AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$18</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,8 +125,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -526,16 +539,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -553,109 +563,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,9 +683,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,9 +723,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,7 +760,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,7 +795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,246 +968,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="205" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="25" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="H4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="26" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="34"/>
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="8"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="E11" s="7"/>
       <c r="K11" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="24"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="11" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="24"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="12" customHeight="1">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="7.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="24"/>
-      <c r="E19" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="9">
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -1211,8 +1205,13 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="11" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="11" scale="82" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>